--- a/mechanical_turk/HTML_files/Context_DME.xlsx
+++ b/mechanical_turk/HTML_files/Context_DME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Capstone\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\ARL\mechanical_turk\HTML_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470C918-89E6-4B9C-8B38-44E3B3727FCB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C4D40E-DCED-4906-8AC5-88A209FAE193}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{34AA2015-C1CD-4D57-A63D-3DF716DC3691}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Identifier</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. You have been searching a set buildings for natural disaster survivors. He indicates that he wants to search the buildings you have just cleared. He has insited twice that he needs to check the buildings again. You realize you cannot convice him to continue.</t>
+  </si>
+  <si>
+    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. He has proposed to set up two aid stations to help victims of a natural distaster, one American and one Chinese. You think it would be better to have one large American aid station, so you ask what benefit his plan has.</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5143391C-0245-4147-9911-D330566057DB}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,7 +550,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -571,6 +574,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>

--- a/mechanical_turk/HTML_files/Context_DME.xlsx
+++ b/mechanical_turk/HTML_files/Context_DME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\ARL\mechanical_turk\HTML_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C4D40E-DCED-4906-8AC5-88A209FAE193}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE52D7B5-B8E8-45CA-838A-04ECD92876C2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{34AA2015-C1CD-4D57-A63D-3DF716DC3691}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Identifier</t>
   </si>
@@ -33,52 +33,70 @@
     <t>Context</t>
   </si>
   <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. He proceeds to ask where your commader, the man he organized your mission, is and why he isn't present</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You approach him to introduce yourself.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. He proceeds to ask where your commader, the man he organized your mission, is and why he isn't present. Your boss can't make it because he had unexpected business.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. The Chinese commander is not asking you for information on the type of supplies that you have brought for the mission. You have not decided what type of supplies you are going to use and will be covering this in a meeting this afternoon.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. You have just heard that planes carrying equiptment for the Chinese team have been delayed. You want to give a response that will indicate how you will adapt to the changes to the mission.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. He has have just told you that planes carrying equiptment for the Chinese team have been delayed, and unless the planes arrive, his team may not be able to help. You want to convince him to still help you carry out the mission.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. He has have just told you that planes carrying equiptment for the Chinese team have been delayed, and unless the planes arrive, his team may not be able to help. You try to convince him to help you, but he says it is out of his control. You want to convince him to help you.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. He has have just told you that planes carrying equiptment for the Chinese team have been delayed, and unless the planes arrive, his team may not be able to help. He has proposed an alternative plan, but you have a few problems with the plan that you want to ask about.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. He has have just told you that planes carrying equiptment for the Chinese team have been delayed, and unless the planes arrive, his team may not be able to help. He has proposed an alternative plan, but you tell him you a few problems with the plan that you want to ask about. He says you can talk to him in private later.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. He has have just told you that planes carrying equiptment for the Chinese team have been delayed, and unless the planes arrive, his team may not be able to help. He has proposed an alternative plan, but you tell him you a few problems with the plan that you want to ask about. You are now in private discussing the plan.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. The Chinese commander is not asking you for information on the type of supplies that you have brought for the mission. You tell him, you want to wait until the meeting this afternoon to talk about it. He tells you that knowing some basic information now would be helpful.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. He has have just told you that planes carrying equiptment for the Chinese team have been delayed, and unless the planes arrive, his team may not be able to help. You try to convince him to help you, but he says it is out of his control. You still want to convince him to help you.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. He has proposed to set up two aid stations to help victims of a natural distaster, one American and one Chinese. You think it would be better to have one large American aid station because your medics have better training.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. You have been searching a set buildings for natural disaster survivors. He indicates that he wants to search the buildings you have just cleared. You want to tell him that you have already cleared the buildings and you need his team's help elsewhere.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. You have been searching a set buildings for natural disaster survivors. He indicates that he wants to search the buildings you have just cleared. He has insited twice that he needs to check the buildings again. You realize you cannot convice him to continue.</t>
-  </si>
-  <si>
-    <t>Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You explain that you have taken the place of your commander because he had unexpected business come up. He has proposed to set up two aid stations to help victims of a natural distaster, one American and one Chinese. You think it would be better to have one large American aid station, so you ask what benefit his plan has.</t>
+    <t xml:space="preserve">You are a US military officer working cooperatively with the Chinese military to pass out supplies to refugees. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly. You tell the Chinese team leader that the supplies need to go back to the aid station and you need the Chinese team to work security. The Chinese leader says that they want to contribute equally. You want to convince him to get his men to work security. </t>
+  </si>
+  <si>
+    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to refugees. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly. You want to tell the Chinese team leader that his team is disrupting the operation.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. You approach him to introduce yourself.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. He proceeds to ask why your commander isn't present.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. Upon meeting the commander of the Chinese team for the first time, he looks slightly discouraged when he sees your rank. He proceeds to ask why your commander isn't present. Your commander can't make it because he had unexpected business.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. He asks you for information on the type of supplies that you have brought for the mission. You have not decided what type of supplies you are going to use and will be covering this in a meeting this afternoon.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. The Chinese commander asks you for information on the type of supplies that you have brought for the mission. You tell him, you want to wait until the meeting this afternoon to talk about it. He tells you that knowing some basic information now would be helpful.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. You have just heard that planes carrying equiptment for the Chinese team have been delayed. You want to give a response that will indicate how you will adapt to the changes to the mission.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. He has just told you that planes carrying equiptment for the Chinese team have been delayed, and unless the planes arrive, his team will not be able to help. You want to convince him to help you carry out the mission.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business.  He has just told you that planes carrying equiptment for the Chinese team have been delayed, and unless the planes arrive, his team may not be able to help. You try to convince him to help you, but he says it is out of his control. You still want to convince him to help you, even if it means going over his head by talking to his commander.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. He has just told you that planes carrying equiptment for the Chinese team have been delayed, and unless the planes arrive, his team may not be able to help. You try to convince him to help you and have told him that you will go to a higher ranked officer if he does not help, but he says it is out of his control. You want to convince him that it is better to cooperate than to make you go to a higher ranked officer.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. There has been a mixup, but the Chinese commander has proposed an alternative plan. You have a few problems with the plan that you want to ask about.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. He has proposed an alternative plan, but you tell him you a few problems with the plan that you want to ask about. He says you can talk to him in private later. You are confused about why you need to talk in private because you don't have much time before the mission starts.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. He has proposed an alternative plan, but you tell him you a few problems with the plan that you want to ask about. You are now meeting to discuss the plan.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. He has proposed to set up two aid stations to help refugees, one American and one Chinese. You think it would be better to have one large American aid station with American medics, so you ask what benefit his plan has.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. He has proposed to set up two aid stations to help victims of a natural distaster, one American and one Chinese. You think it would be better to have one large American aid station because your medics have better training.</t>
+  </si>
+  <si>
+    <t>You are an American soldier who is meeting with the commander of a Chinese army platoon to discuss important business. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly. You want to tell the Chinese team leader that the supplies need to go back to the aid station and you need the Chinese team to work security.</t>
+  </si>
+  <si>
+    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to refugees. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly. You want to tell the Chinese team leader that the supplies need to go back to the aid station and you need the Chinese team to work security.</t>
+  </si>
+  <si>
+    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to refugees. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly. You want to tell the Chinese team leader that you are in charge of the aid station, and you dictate how the supplies are distrubuted.</t>
+  </si>
+  <si>
+    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to refugees. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly. You feel your team should hand out supplies becuase you are in contorl of the aid station. You have asked the Chinese team leader to have his team pack supplies, but he says he wants to be treated equally in the mission. He has threatened to leave if you do not let his team hand out supplies. You do not want him to leave because it will hurt the mission.</t>
+  </si>
+  <si>
+    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to refugees. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly. You feel your team should hand out supplies becuase you are in contorl of the aid station.You have reluctantly agreed to allow the Chinese team to hand out supplies, but the team leader also wants you to allow them to film. You don't think it is a good idea.</t>
+  </si>
+  <si>
+    <t>You are a US military officer working cooperatively with the Chinese military to pass out supplies to refugees. The US team has taken change of the aid station where the supplies are being distrubuted. The Chinese team shows up and begins passing out supplies. They are handing supplies out haphazardly. You feel your team should hand out supplies becuase you are in contorl of the aid station.You have reluctantly agreed to allow the Chinese team to hand out supplies, but the team leader also wants you to allow them to film. He insists that they must be in the tent you are using to handle supplies. You are reluctant to agree.</t>
   </si>
 </sst>
 </file>
@@ -430,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5143391C-0245-4147-9911-D330566057DB}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -478,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -486,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -502,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -510,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -518,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -526,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -534,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -542,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -550,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -574,7 +592,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -582,7 +600,63 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
